--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cycle10_2_110.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cycle10_2_110.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2738"/>
+  <dimension ref="A1:N2739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.173265933990479</v>
+        <v>3.927267074584961</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009929895401000977</v>
+        <v>0.0182340145111084</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4523289203643799</v>
+        <v>0.6751370429992676</v>
       </c>
     </row>
     <row r="8">
@@ -19705,7 +19705,7 @@
         </is>
       </c>
       <c r="B2732" t="n">
-        <v>1.661147614136036e-06</v>
+        <v>1.661081169560371e-06</v>
       </c>
     </row>
     <row r="2733">
@@ -19715,116 +19715,126 @@
         </is>
       </c>
       <c r="B2733" t="n">
-        <v>82261.91878347068</v>
+        <v>82321.91878347068</v>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B2734" t="n">
-        <v>70</v>
+        <v>0.9957587352985293</v>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B2735" t="n">
-        <v>2619</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2736">
       <c r="A2736" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B2736" t="n">
-        <v>10</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="2737">
       <c r="A2737" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B2737" t="n">
-        <v>3.776857852935791</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2738">
       <c r="A2738" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B2738" t="n">
+        <v>4.781518697738647</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B2738" t="inlineStr">
+      <c r="B2739" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C2738" t="inlineStr">
+      <c r="C2739" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D2738" t="inlineStr">
+      <c r="D2739" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E2738" t="inlineStr">
+      <c r="E2739" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F2738" t="inlineStr">
+      <c r="F2739" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2738" t="inlineStr">
+      <c r="G2739" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H2738" t="inlineStr">
+      <c r="H2739" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I2738" t="inlineStr">
+      <c r="I2739" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J2738" t="inlineStr">
+      <c r="J2739" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K2738" t="inlineStr">
+      <c r="K2739" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L2738" t="inlineStr">
+      <c r="L2739" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M2738" t="inlineStr">
+      <c r="M2739" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N2738" t="inlineStr">
+      <c r="N2739" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cycle10_2_110.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_cycle10_2_110.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.927267074584961</v>
+        <v>0.002228021621704102</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0182340145111084</v>
+        <v>0.0006999969482421875</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6751370429992676</v>
+        <v>0.4151687622070312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 3), (0, 3), (0, 1), (1, 1), (2, 2), (1, 0), (0, 0), (0, 2), (1, 3), (3, 2), (1, 2), (2, 1)]</t>
+          <t>[[2, 3], [0, 3], [0, 1], [1, 1], [2, 2], [1, 0], [0, 0], [0, 2], [1, 3], [3, 2], [1, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[(2, 1), (2, 3), (1, 3), (3, 2), (1, 1), (2, 0), (0, 0), (0, 1), (1, 0), (0, 2), (1, 2), (2, 2)]</t>
+          <t>[[2, 1], [2, 3], [1, 3], [3, 2], [1, 1], [2, 0], [0, 0], [0, 1], [1, 0], [0, 2], [1, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (2, 0), (3, 1), (0, 0), (0, 2), (1, 0), (2, 2), (1, 1), (0, 1), (1, 2), (2, 1)]</t>
+          <t>[[3, 2], [3, 0], [2, 0], [3, 1], [0, 0], [0, 2], [1, 0], [2, 2], [1, 1], [0, 1], [1, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 0), (1, 1), (2, 1), (3, 0), (2, 2), (3, 3), (0, 1), (1, 0), (2, 0), (3, 1), (3, 2)]</t>
+          <t>[[0, 2], [0, 0], [1, 1], [2, 1], [3, 0], [2, 2], [3, 3], [0, 1], [1, 0], [2, 0], [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (1, 0), (2, 2), (3, 1), (3, 0), (3, 3), (0, 3), (0, 0), (2, 0), (1, 1), (2, 1)]</t>
+          <t>[[0, 2], [0, 1], [1, 0], [2, 2], [3, 1], [3, 0], [3, 3], [0, 3], [0, 0], [2, 0], [1, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>[(1, 3), (1, 2), (0, 1), (0, 0), (2, 0), (2, 2), (2, 3), (0, 3), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[1, 3], [1, 2], [0, 1], [0, 0], [2, 0], [2, 2], [2, 3], [0, 3], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>[(0, 0), (2, 0), (2, 2), (1, 2), (3, 0), (1, 0), (2, 1), (1, 3), (0, 3), (0, 1), (1, 1), (0, 2)]</t>
+          <t>[[0, 0], [2, 0], [2, 2], [1, 2], [3, 0], [1, 0], [2, 1], [1, 3], [0, 3], [0, 1], [1, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -14578,7 +14578,7 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 3), (3, 1), (0, 1), (0, 0), (0, 2), (1, 0), (2, 0), (1, 1), (1, 2), (2, 2), (2, 1)]</t>
+          <t>[[3, 2], [2, 3], [3, 1], [0, 1], [0, 0], [0, 2], [1, 0], [2, 0], [1, 1], [1, 2], [2, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -17654,7 +17654,7 @@
     <row r="2441">
       <c r="A2441" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 2), (1, 1), (0, 0), (2, 1), (3, 0), (2, 2), (1, 3), (0, 2), (0, 1), (2, 0), (1, 0)]</t>
+          <t>[[0, 3], [1, 2], [1, 1], [0, 0], [2, 1], [3, 0], [2, 2], [1, 3], [0, 2], [0, 1], [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
     <row r="2706">
       <c r="A2706" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 2), (1, 0), (2, 0), (2, 1), (3, 0), (2, 2), (1, 3), (0, 3), (1, 2), (1, 1), (0, 1)]</t>
+          <t>[[0, 0], [0, 2], [1, 0], [2, 0], [2, 1], [3, 0], [2, 2], [1, 3], [0, 3], [1, 2], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
         </is>
       </c>
       <c r="B2738" t="n">
-        <v>4.781518697738647</v>
+        <v>0.5507099628448486</v>
       </c>
     </row>
     <row r="2739">
